--- a/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
+++ b/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirvana/Desktop/2020组成原理课设资料发布包/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirvana/Desktop/Hust/2020A/组原课设/CO2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D56EA-8637-174C-9CFC-AB9904DAE1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4138045E-4742-434A-A61F-677FF124B3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="5480" windowWidth="27080" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="33960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2041,8 +2041,8 @@
   </sheetPr>
   <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC71" sqref="AC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4572,7 +4572,9 @@
         <v>1</v>
       </c>
       <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
+      <c r="AA24" s="55">
+        <v>1</v>
+      </c>
       <c r="AB24" s="55"/>
       <c r="AC24" s="55"/>
       <c r="AD24" s="55"/>
@@ -4676,7 +4678,9 @@
       </c>
       <c r="Y25" s="27"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
+      <c r="AA25" s="27">
+        <v>1</v>
+      </c>
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
@@ -6323,7 +6327,7 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF82" sqref="AF82"/>
     </sheetView>
   </sheetViews>
@@ -10076,7 +10080,7 @@
       </c>
       <c r="Z24" s="35" t="str">
         <f>IF(真值表!AA24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AA24" s="35" t="str">
         <f>IF(真值表!AB24=1,$P24&amp;"+","")</f>
@@ -10234,7 +10238,7 @@
       </c>
       <c r="Z25" s="35" t="str">
         <f>IF(真值表!AA25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AA25" s="35" t="str">
         <f>IF(真值表!AB25=1,$P25&amp;"+","")</f>
@@ -18789,7 +18793,7 @@
       </c>
       <c r="Z82" s="56" t="str">
         <f t="shared" ref="Z82" si="6">IF(LEN(Z83)&gt;1,LEFT(Z83,LEN(Z83)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="AA82" s="54" t="str">
         <f t="shared" ref="AA82:AB82" si="7">IF(LEN(AA83)&gt;1,LEFT(AA83,LEN(AA83)-1),"")</f>
@@ -18886,7 +18890,7 @@
       </c>
       <c r="Z83" t="str">
         <f t="shared" si="18"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AA83" t="str">
         <f t="shared" si="18"/>
